--- a/states.xlsx
+++ b/states.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew\Documents\GitHub\COP3530Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew\Documents\GitHub\COP3530FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CCA06F-8E42-4AFB-AE68-2EA638435889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A22F890-7201-4836-B2B4-D5AB5BA8D6C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{04479374-CE46-4E46-8F6E-A04DF5284651}"/>
   </bookViews>
@@ -270,9 +270,6 @@
     <t>PA</t>
   </si>
   <si>
-    <t>RHODE ISLAND</t>
-  </si>
-  <si>
     <t>RI</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>RHODE ISLAND</t>
   </si>
 </sst>
 </file>
@@ -741,7 +741,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1064,98 +1064,98 @@
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/states.xlsx
+++ b/states.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew\Documents\GitHub\COP3530FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domle\Documents\GitHub\COP3530FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A22F890-7201-4836-B2B4-D5AB5BA8D6C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D0516-BC0D-4D63-90F4-7F78BD4174BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{04479374-CE46-4E46-8F6E-A04DF5284651}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04479374-CE46-4E46-8F6E-A04DF5284651}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,17 +740,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87511DD9-B795-4160-8620-91CA1B087207}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="2" max="2" width="4.54296875" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -766,7 +766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="15" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -782,7 +782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="15" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -790,7 +790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="15" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -798,7 +798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="15" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -806,7 +806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -814,7 +814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="15" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -822,7 +822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="15" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -830,7 +830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="15" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -838,7 +838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="15" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -846,7 +846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" ht="15" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -854,7 +854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" ht="15" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -862,7 +862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="15" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -870,7 +870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -878,7 +878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="15" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -886,7 +886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="15" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -894,7 +894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="15" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -902,7 +902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="15" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -910,7 +910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="15" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -918,7 +918,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="15" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -926,7 +926,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="15" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -934,7 +934,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="15" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -942,7 +942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="15" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -950,7 +950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="15" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -958,7 +958,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="15" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -966,7 +966,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="15" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -974,7 +974,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" ht="15" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -982,7 +982,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="15" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -990,7 +990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" ht="15" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -998,7 +998,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" ht="15" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="15" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" ht="15" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" ht="15" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" ht="15" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" ht="15" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" ht="15" thickBot="1">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" ht="15" thickBot="1">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" ht="15" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" ht="15" thickBot="1">
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" ht="15" thickBot="1">
       <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" ht="15" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" ht="15" thickBot="1">
       <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" ht="15" thickBot="1">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" ht="15" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" ht="15" thickBot="1">
       <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" ht="15" thickBot="1">
       <c r="A48" s="1" t="s">
         <v>93</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" ht="15" thickBot="1">
       <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" ht="15" thickBot="1">
       <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
         <v>99</v>
       </c>
